--- a/biology/Zoologie/Carassioides/Carassioides.xlsx
+++ b/biology/Zoologie/Carassioides/Carassioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carassioides est un genre de poissons d'eau douce téléostéens de la famille des Cyprinidae (ordre des Cypriniformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Carassioides se rencontrent au Viêt Nam et en Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Carassioides se rencontrent au Viêt Nam et en Chine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (17 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (17 décembre 2023) :
 Carassioides acuminatus (Richardson, 1846)
 Carassioides argentea Nguyen, 2001
 Carassioides macropterus Nguyen, 2001
@@ -576,10 +592,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Carassioides Oshima, 1926[2],[3].
-Carassioides a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Carassioides Oshima, 1926,.
+Carassioides a pour synonyme :
 Carassoides (graphie incorrecte)</t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Carassioides, se compose du genre Carassius et du suffixe latin -oides, dérivé du grec ancien εἶδος, eī́dos, « forme, apparence », que Masamitsu Ōshima considère être le genre le plus proche du genre Carassius[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Carassioides, se compose du genre Carassius et du suffixe latin -oides, dérivé du grec ancien εἶδος, eī́dos, « forme, apparence », que Masamitsu Ōshima considère être le genre le plus proche du genre Carassius,.
 </t>
         </is>
       </c>
@@ -640,6 +660,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
